--- a/Industrial Project/Cálculos PI.xlsx
+++ b/Industrial Project/Cálculos PI.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yovan\Desktop\Universidad\2024-I\Servomecanismos\Servomechanisms_projects\Industrial Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C5659-9B04-4993-9E74-42D464AC430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B0CA0B-C856-4D93-8444-F2CDE7B85AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0F2CBF6-5ED2-493D-A4FB-4071C97ABC6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B0F2CBF6-5ED2-493D-A4FB-4071C97ABC6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Formado (1)" sheetId="5" r:id="rId1"/>
-    <sheet name="Home (1)" sheetId="6" r:id="rId2"/>
-    <sheet name="Formado (2)" sheetId="1" r:id="rId3"/>
+    <sheet name="Formado (2)" sheetId="1" r:id="rId2"/>
+    <sheet name="Home (1)" sheetId="7" r:id="rId3"/>
     <sheet name="Home (2)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="48">
   <si>
     <t>L</t>
   </si>
@@ -86,9 +86,6 @@
     <t>ERROR</t>
   </si>
   <si>
-    <t>L (rad)</t>
-  </si>
-  <si>
     <t>ϑ1 + ϑ3</t>
   </si>
   <si>
@@ -131,12 +128,6 @@
     <t>tp</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
     <t>tp1</t>
   </si>
   <si>
@@ -183,18 +174,32 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>ϑ (rad)</t>
+  </si>
+  <si>
+    <t>ϑ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="184" formatCode="0.0000000000000000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,15 +220,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,12 +231,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -285,7 +277,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,6 +298,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,35 +648,36 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="E1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -698,14 +697,14 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <f>RADIANS(90)</f>
         <v>1.5707963267948966</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -721,7 +720,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -729,9 +728,6 @@
         <f>B3/2</f>
         <v>2.75</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
@@ -743,17 +739,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10">
-        <f>B4</f>
-        <v>2.75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="10"/>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
@@ -765,298 +752,231 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10">
-        <f>B5*0.2</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C6" s="3">
-        <f>ABS(2*B6/B5)</f>
-        <v>0.4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>1.5625</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10">
-        <f>F5*0.25</f>
-        <v>0.34375</v>
-      </c>
-      <c r="G6" s="7">
-        <f>ABS(2*F6/F5)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <f>B5-2*B6</f>
-        <v>1.65</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B6*4*D2/(B4*B4)</f>
+        <v>2.4793388429752068</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <f>F5-2*F6</f>
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <f>F6*4*H2/(F5*F5)</f>
+        <v>4.431116910848413</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <f>((B7*B4) - (B7*SQRT(B4*B4-4*D2/B7)))/2</f>
+        <v>1.3636363636363633</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <f>((F7*F5) - (F7*SQRT(F5*F5-4*H2/F7)))/2</f>
+        <v>1.5231964381041421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <f>4*D2/(B4*B4)</f>
-        <v>1.5867768595041323</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B8/B7</f>
+        <v>0.54999999999999982</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2">
-        <f>4*H2/(F5*F5)</f>
-        <v>3.3233376831363102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
+        <f>F8/F7</f>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <f>((B9*B4) + (B9*SQRT(B4*B4-4*D2/B9)))/2</f>
-        <v>2.1818181818181817</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B4-2*B9</f>
+        <v>1.6500000000000004</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <f>((F9*F5) + (F9*SQRT(F5*F5-4*H2/F9)))/2</f>
-        <v>2.2847946571562132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <f>F5-2*F9</f>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="10">
-        <f>2*C11</f>
-        <v>0.48000000000000009</v>
-      </c>
-      <c r="C11" s="10">
-        <f>B9*B6*B6/2</f>
-        <v>0.24000000000000005</v>
-      </c>
+        <f>B7*B9*B9</f>
+        <v>0.74999999999999956</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="10">
-        <f>2*G11</f>
-        <v>0.39269908169872414</v>
-      </c>
-      <c r="G11" s="10">
-        <f>F9*F6*F6/2</f>
-        <v>0.19634954084936207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <f>F7*F9*F9</f>
+        <v>0.5235987755982987</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10">
-        <f>B10*B7</f>
-        <v>3.5999999999999996</v>
+        <f>B10*B8</f>
+        <v>2.25</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="10">
-        <f>F10*F7</f>
-        <v>1.5707963267948966</v>
+        <f>F10*F8</f>
+        <v>1.0471975511965976</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
         <f>B12+B11</f>
-        <v>4.08</v>
-      </c>
-      <c r="C13" s="13">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C13" s="22">
         <f>ABS((B13-3)/3)</f>
-        <v>0.36000000000000004</v>
+        <v>1.4802973661668753E-16</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <f>F12+F11</f>
-        <v>1.9634954084936207</v>
-      </c>
-      <c r="G13" s="13">
+        <v>1.5707963267948963</v>
+      </c>
+      <c r="G13" s="22">
         <f>ABS((F13-H2)/H2)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
+        <v>1.4135798584282297E-16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I14" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="12">
-        <f>B9</f>
-        <v>1.5867768595041323</v>
-      </c>
-      <c r="C16" s="12">
-        <f>B10</f>
-        <v>2.1818181818181817</v>
-      </c>
-      <c r="D16" s="12">
-        <f>B6</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E16">
-        <f>B7</f>
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="12">
-        <f>F9</f>
-        <v>3.3233376831363102</v>
-      </c>
-      <c r="C17" s="12">
-        <f>F10</f>
-        <v>2.2847946571562132</v>
-      </c>
-      <c r="D17" s="2">
-        <f>F6</f>
-        <v>0.34375</v>
-      </c>
-      <c r="E17">
-        <f>F7</f>
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2">
-        <f>B17</f>
-        <v>3.3233376831363102</v>
-      </c>
-      <c r="C18" s="2">
-        <f>C17</f>
-        <v>2.2847946571562132</v>
-      </c>
-      <c r="D18" s="2">
-        <f>F6</f>
-        <v>0.34375</v>
-      </c>
-      <c r="E18">
-        <f>F7</f>
-        <v>0.6875</v>
+      <c r="B23">
+        <v>41.564999999999998</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <f>B24-B23</f>
+        <v>1.3599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>42.924999999999997</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <f>B25-B23</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>44.314999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>41.564999999999998</v>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="D27">
-        <f>B28-B27</f>
-        <v>1.3599999999999994</v>
+      <c r="D27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>29</v>
+      <c r="A28">
+        <v>41.564999999999998</v>
       </c>
       <c r="B28">
         <v>42.924999999999997</v>
       </c>
-      <c r="C28" t="s">
-        <v>28</v>
+      <c r="C28">
+        <v>44.314999999999998</v>
       </c>
       <c r="D28">
-        <f>B29-B27</f>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>44.314999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>41.564999999999998</v>
-      </c>
-      <c r="B32">
-        <v>42.924999999999997</v>
-      </c>
-      <c r="C32">
-        <v>44.314999999999998</v>
-      </c>
-      <c r="D32">
         <v>1.36</v>
       </c>
-      <c r="E32" s="3">
-        <f>ABS(D32-B6)/B6</f>
-        <v>1.4727272727272727</v>
+      <c r="E28" s="3" t="e">
+        <f>ABS(D28-#REF!)/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -1070,402 +990,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F17880E-4932-4949-B2C9-9F9849220BB5}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:L21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="E1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <f>RADIANS(90)</f>
-        <v>1.5707963267948966</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>(1/B2)*60-0.5</f>
-        <v>5.5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <f>(1/F2)*60-0.5</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <f>B3/2</f>
-        <v>2.75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <f>F3/2</f>
-        <v>2.75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10">
-        <f>B4</f>
-        <v>2.75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="10">
-        <f>F4/2</f>
-        <v>1.375</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10">
-        <f>B5*0.3</f>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="C6" s="3">
-        <f>ABS(2*B6/B5)</f>
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10">
-        <f>F5*0.4</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G6" s="7">
-        <f>ABS(2*F6/F5)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <f>B5-2*B6</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <f>F5-2*F6</f>
-        <v>0.27499999999999991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <f>1.2*4*D2/(B4*B4)</f>
-        <v>1.9041322314049585</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2">
-        <f>1.2*4*H2/(F5*F5)</f>
-        <v>3.988005219763572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <f>((B9*B4) + (B9*SQRT(B4*B4-4*D2/B9)))/2</f>
-        <v>3.6870500695781132</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <f>((F9*F5) + (F9*SQRT(F5*F5-4*H2/F9)))/2</f>
-        <v>3.8610698040014464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10">
-        <f>2*C11</f>
-        <v>1.2959999999999996</v>
-      </c>
-      <c r="C11" s="10">
-        <f>B9*B6*B6/2</f>
-        <v>0.6479999999999998</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="10">
-        <f>2*G11</f>
-        <v>1.2063715789784808</v>
-      </c>
-      <c r="G11" s="10">
-        <f>F9*F6*F6/2</f>
-        <v>0.6031857894892404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10">
-        <f>B10*B7</f>
-        <v>4.0557550765359247</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="10">
-        <f>F10*F7</f>
-        <v>1.0617941961003974</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <f>B12+B11</f>
-        <v>5.3517550765359241</v>
-      </c>
-      <c r="C13" s="13">
-        <f>ABS((B13-3)/3)</f>
-        <v>0.78391835884530803</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <f>F12+F11</f>
-        <v>2.2681657750788782</v>
-      </c>
-      <c r="G13" s="13">
-        <f>ABS((F13-H2)/H2)</f>
-        <v>0.44395917942265417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="12">
-        <f>B9</f>
-        <v>1.9041322314049585</v>
-      </c>
-      <c r="C16" s="12">
-        <f>B10</f>
-        <v>3.6870500695781132</v>
-      </c>
-      <c r="D16" s="12">
-        <f>B6</f>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E16">
-        <f>B7</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="12">
-        <f>F9</f>
-        <v>3.988005219763572</v>
-      </c>
-      <c r="C17" s="12">
-        <f>F10</f>
-        <v>3.8610698040014464</v>
-      </c>
-      <c r="D17" s="2">
-        <f>F6</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E17">
-        <f>F7</f>
-        <v>0.27499999999999991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2">
-        <f>B17</f>
-        <v>3.988005219763572</v>
-      </c>
-      <c r="C18" s="2">
-        <f>C17</f>
-        <v>3.8610698040014464</v>
-      </c>
-      <c r="D18" s="2">
-        <f>F6</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E18">
-        <f>F7</f>
-        <v>0.27499999999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>44.314999999999998</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
-        <f>B23-B22</f>
-        <v>1.3100000000000023</v>
-      </c>
-      <c r="F22" s="3">
-        <f>ABS(D22-B6)/B6</f>
-        <v>0.58787878787879067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>45.625</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23">
-        <f>B24-B22</f>
-        <v>2.5800000000000054</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>46.895000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E5E912-B2D5-4836-B42A-0522C90B9826}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -1473,13 +997,13 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
@@ -1488,17 +1012,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="E1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1521,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <f>RADIANS(90)</f>
@@ -1568,14 +1092,15 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="10">
-        <f>B4</f>
-        <v>2.75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
+        <f>B4*0.2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C5" s="3">
+        <f>ABS(2*B5/B4)</f>
+        <v>0.4</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>6</v>
@@ -1590,15 +1115,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10">
-        <f>B5*0.2</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C6" s="3">
-        <f>ABS(2*B6/B5)</f>
-        <v>0.4</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f>B4-2*B5</f>
+        <v>1.65</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>8</v>
@@ -1613,13 +1134,6 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <f>B5-2*B6</f>
-        <v>1.65</v>
-      </c>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1635,8 +1149,8 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <f>D2/(B6*B6+B6*B7)</f>
+      <c r="B9" s="21">
+        <f>D2/(B5*B5+B5*B6)</f>
         <v>2.4793388429752068</v>
       </c>
       <c r="D9" s="1"/>
@@ -1652,8 +1166,8 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
-        <f>B9*B6</f>
+      <c r="B10" s="21">
+        <f>B9*B5</f>
         <v>1.3636363636363638</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1669,35 +1183,29 @@
         <v>11</v>
       </c>
       <c r="B11" s="10">
-        <f>2*C11</f>
+        <f>B9*B5*B5</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="C11" s="10">
-        <f>B9*B6*B6/2</f>
-        <v>0.37500000000000006</v>
-      </c>
+      <c r="C11" s="10"/>
       <c r="E11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="10">
-        <f>2*G11</f>
+        <f>F9*F6*F6</f>
         <v>0.52359877559829893</v>
       </c>
-      <c r="G11" s="10">
-        <f>F9*F6*F6/2</f>
-        <v>0.26179938779914946</v>
-      </c>
+      <c r="G11" s="10"/>
       <c r="L11" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>5</v>
@@ -1708,14 +1216,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="10">
-        <f>B10*B7</f>
+        <f>B10*B6</f>
         <v>2.25</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="10">
         <f>F10*F7</f>
@@ -1725,19 +1233,19 @@
         <v>14</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>37</v>
+      <c r="M12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -1754,7 +1262,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <f>F12+F11</f>
@@ -1765,7 +1273,7 @@
         <v>1.4135798584282297E-16</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M13" s="11">
         <f>B27</f>
@@ -1783,36 +1291,36 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
       <c r="L15" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M15">
         <v>26.524000000000001</v>
@@ -1829,7 +1337,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="12">
         <f>B9</f>
@@ -1840,15 +1348,15 @@
         <v>1.3636363636363638</v>
       </c>
       <c r="D16" s="12">
+        <f>B5</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E16">
         <f>B6</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E16">
-        <f>B7</f>
         <v>1.65</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M16">
         <v>27.864000000000001</v>
@@ -1865,7 +1373,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="12">
         <f>F9</f>
@@ -1886,7 +1394,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <f>B17</f>
@@ -1905,55 +1413,55 @@
         <v>0.6875</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="N18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
+      <c r="O18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K19" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L19" s="12">
+        <f>B5</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M19" s="15">
         <f>B6</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M19" s="16">
-        <f>B7</f>
         <v>1.65</v>
       </c>
       <c r="N19" s="12">
         <f>L19</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="O19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>37</v>
+      <c r="O19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L20" s="11">
         <v>0.53</v>
@@ -1964,35 +1472,35 @@
       <c r="N20" s="11">
         <v>0.52</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="14">
         <f>ABS(L19-L20)/L19</f>
         <v>3.636363636363639E-2</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="14">
         <f t="shared" ref="P20" si="0">ABS(M19-M20)/M19</f>
         <v>1.2121212121212133E-2</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="14">
         <f>ABS(N19-N20)/N19</f>
         <v>5.4545454545454591E-2</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>26.524000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <f>B22-B21</f>
         <v>0.52999999999999758</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L21" s="12">
         <f>F6</f>
@@ -2006,19 +1514,19 @@
         <f>L21</f>
         <v>0.34375</v>
       </c>
-      <c r="O21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>37</v>
+      <c r="O21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>27.053999999999998</v>
@@ -2031,7 +1539,7 @@
         <v>1.6700000000000017</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L22" s="11">
         <v>0.31</v>
@@ -2042,35 +1550,35 @@
       <c r="N22" s="11">
         <v>0.37</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="14">
         <f>ABS(L21-L22)/L21</f>
         <v>9.818181818181819E-2</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="14">
         <f t="shared" ref="P22:Q22" si="1">ABS(M21-M22)/M21</f>
         <v>3.9999999999999952E-2</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="14">
         <f t="shared" si="1"/>
         <v>7.6363636363636356E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>28.724</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <f>B24-B23</f>
         <v>0.51999999999999957</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L23" s="11">
         <v>0.37</v>
@@ -2081,22 +1589,22 @@
       <c r="N23" s="11">
         <v>0.37</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="14">
         <f>ABS(L21-L23)/L21</f>
         <v>7.6363636363636356E-2</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="14">
         <f t="shared" ref="P23:Q23" si="2">ABS(M21-M23)/M21</f>
         <v>6.9090909090909078E-2</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="14">
         <f t="shared" si="2"/>
         <v>7.6363636363636356E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>29.244</v>
@@ -2104,34 +1612,34 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
         <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>26.524000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <f>B28-B27</f>
         <v>0.30999999999999872</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27">
         <v>27.864000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27">
         <f>G28-G27</f>
@@ -2140,7 +1648,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>26.834</v>
@@ -2153,7 +1661,7 @@
         <v>0.66000000000000014</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>28.234000000000002</v>
@@ -2168,26 +1676,26 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>27.494</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <f>B30-B29</f>
         <v>0.37000000000000099</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>28.873999999999999</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I29">
         <f>G30-G29</f>
@@ -2196,26 +1704,26 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>27.864000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <f>SUM(D27:D29)</f>
         <v>1.3399999999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30">
         <v>29.244</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I30">
         <f>SUM(I27:I29)</f>
@@ -2227,6 +1735,352 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="O18:Q18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4FF2AA-D824-4ADF-BF02-55D2860150A0}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2">
+        <f>RADIANS(90)</f>
+        <v>1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>(1/B2)*60-0.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>(1/F2)*60-0.5</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>B3/2</f>
+        <v>2.75</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <f>F3/2</f>
+        <v>2.75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="10"/>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10">
+        <f>F4/2</f>
+        <v>1.375</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.19047619047619</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <f>B6*4*D2/(B4*B4)</f>
+        <v>1.8890200708382521</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <f>F6*4*H2/(F5*F5)</f>
+        <v>3.4618100866003343</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <f>((B7*B4) - (B7*SQRT(B4*B4-4*D2/B7)))/2</f>
+        <v>1.5584415584415585</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <f>((F7*F5) - (F7*SQRT(F5*F5-4*H2/F7)))/2</f>
+        <v>1.9039955476301655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B8/B7</f>
+        <v>0.82500000000000029</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
+        <f>F8/F7</f>
+        <v>0.54999999999999472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B4-2*B9</f>
+        <v>1.0999999999999994</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <f>F5-2*F9</f>
+        <v>0.27500000000001057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10">
+        <f>B7*B9*B9</f>
+        <v>1.2857142857142863</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10">
+        <f>F7*F9*F9</f>
+        <v>1.047197551196581</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <f>B10*B8</f>
+        <v>1.7142857142857135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10">
+        <f>F10*F8</f>
+        <v>0.52359877559831569</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f>B12+B11</f>
+        <v>3</v>
+      </c>
+      <c r="C13" s="22">
+        <f>ABS((B13-3)/3)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <f>F12+F11</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="G13" s="22">
+        <f>ABS((F13-H2)/H2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I14" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>41.564999999999998</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <f>B24-B23</f>
+        <v>1.3599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>42.924999999999997</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <f>B25-B23</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>44.314999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>41.564999999999998</v>
+      </c>
+      <c r="B28">
+        <v>42.924999999999997</v>
+      </c>
+      <c r="C28">
+        <v>44.314999999999998</v>
+      </c>
+      <c r="D28">
+        <v>1.36</v>
+      </c>
+      <c r="E28" s="3" t="e">
+        <f>ABS(D28-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2240,31 +2094,32 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="E1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -2286,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <f>RADIANS(90)</f>
@@ -2434,24 +2289,18 @@
         <v>11</v>
       </c>
       <c r="B11" s="10">
-        <f>2*C11</f>
+        <f>B9*B6*B6</f>
         <v>1.2857142857142858</v>
       </c>
-      <c r="C11" s="10">
-        <f>B9*B6*B6/2</f>
-        <v>0.6428571428571429</v>
-      </c>
+      <c r="C11" s="10"/>
       <c r="E11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="10">
-        <f>2*G11</f>
+        <f>F9*F6*F6</f>
         <v>1.0471975511965981</v>
       </c>
-      <c r="G11" s="10">
-        <f>F9*F6*F6/2</f>
-        <v>0.52359877559829904</v>
-      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -2465,7 +2314,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="10">
         <f>F10*F7</f>
@@ -2489,7 +2338,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <f>F12+F11</f>
@@ -2502,28 +2351,28 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
       <c r="J15" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>5</v>
@@ -2531,7 +2380,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="12">
         <f>B9</f>
@@ -2550,7 +2399,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K16" s="11">
         <v>29.294</v>
@@ -2567,7 +2416,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="12">
         <f>F9</f>
@@ -2586,7 +2435,7 @@
         <v>0.27499999999999991</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K17" s="11">
         <v>29.294</v>
@@ -2603,7 +2452,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <f>B17</f>
@@ -2622,7 +2471,7 @@
         <v>0.27499999999999991</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K18" s="11">
         <v>30.643999999999998</v>
@@ -2639,48 +2488,48 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="L20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
+      <c r="M20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>29.294</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <f>B22-B21</f>
         <v>0.80999999999999872</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J21" s="12">
         <f>B6</f>
         <v>0.82499999999999996</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <f>B7</f>
         <v>1.1000000000000001</v>
       </c>
@@ -2688,19 +2537,19 @@
         <f>J21</f>
         <v>0.82499999999999996</v>
       </c>
-      <c r="M21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>37</v>
+      <c r="M21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>30.103999999999999</v>
@@ -2713,7 +2562,7 @@
         <v>1.120000000000001</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J22" s="12">
         <v>0.81</v>
@@ -2721,38 +2570,38 @@
       <c r="K22" s="12">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="16">
         <v>0.84</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="14">
         <f>ABS(J21-J22)/J21</f>
         <v>1.8181818181818063E-2</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <f t="shared" ref="N22" si="0">ABS(K21-K22)/K21</f>
         <v>1.8181818181818195E-2</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="14">
         <f>ABS(L21-L22)/L21</f>
         <v>1.8181818181818198E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>31.224</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <f>B24-B23</f>
         <v>0.83999999999999986</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J23" s="12">
         <f>F6</f>
@@ -2766,25 +2615,25 @@
         <f>J23</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="M23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>37</v>
+      <c r="M23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>32.064</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J24" s="12">
         <v>0.55000000000000004</v>
@@ -2795,24 +2644,24 @@
       <c r="L24" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="14">
         <f>ABS(J23-J24)/J23</f>
         <v>0</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="14">
         <f>ABS(K23-K24)/K23</f>
         <v>9.090909090909062E-2</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="14">
         <f t="shared" ref="O24" si="1">ABS(L23-L24)/L23</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I25" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="17">
+        <v>44</v>
+      </c>
+      <c r="J25" s="16">
         <v>0.57999999999999996</v>
       </c>
       <c r="K25" s="12">
@@ -2821,49 +2670,49 @@
       <c r="L25" s="12">
         <v>0.62</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="14">
         <f>ABS(J23-J25)/J23</f>
         <v>5.454545454545439E-2</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="14">
         <f>ABS(K23-K25)/K23</f>
         <v>0.19999999999999973</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="14">
         <f t="shared" ref="O25" si="2">ABS(L23-L25)/L23</f>
         <v>0.12727272727272718</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
         <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>29.294</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <f>B28-B27</f>
         <v>0.55000000000000071</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27">
         <v>30.643999999999998</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27">
         <f>G28-G27</f>
@@ -2872,7 +2721,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>29.844000000000001</v>
@@ -2885,7 +2734,7 @@
         <v>0.25</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>31.224</v>
@@ -2900,26 +2749,26 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>30.094000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <f>B30-B29</f>
         <v>0.54999999999999716</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>31.443999999999999</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I29">
         <f>G30-G29</f>
@@ -2928,26 +2777,26 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>30.643999999999998</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <f>SUM(D27:D29)</f>
         <v>1.3499999999999979</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30">
         <v>32.064</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I30">
         <f>SUM(I27:I29)</f>

--- a/Industrial Project/Cálculos PI.xlsx
+++ b/Industrial Project/Cálculos PI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yovan\Desktop\Universidad\2024-I\Servomecanismos\Servomechanisms_projects\Industrial Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B0CA0B-C856-4D93-8444-F2CDE7B85AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07474E95-27FF-42DD-9BA2-5AE302D06FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B0F2CBF6-5ED2-493D-A4FB-4071C97ABC6B}"/>
   </bookViews>
@@ -193,11 +193,11 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
-    <numFmt numFmtId="174" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="176" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="184" formatCode="0.0000000000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -289,6 +289,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,13 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,7 +651,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,17 +665,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -768,7 +768,7 @@
         <f>4/3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -778,7 +778,7 @@
         <f>B6*4*D2/(B4*B4)</f>
         <v>2.4793388429752068</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
         <v>9</v>
@@ -889,7 +889,7 @@
         <f>B12+B11</f>
         <v>2.9999999999999996</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <f>ABS((B13-3)/3)</f>
         <v>1.4802973661668753E-16</v>
       </c>
@@ -901,13 +901,13 @@
         <f>F12+F11</f>
         <v>1.5707963267948963</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <f>ABS((F13-H2)/H2)</f>
         <v>1.4135798584282297E-16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I14" s="20"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -1012,17 +1012,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1149,7 +1149,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="18">
         <f>D2/(B5*B5+B5*B6)</f>
         <v>2.4793388429752068</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="18">
         <f>B9*B5</f>
         <v>1.3636363636363638</v>
       </c>
@@ -1424,11 +1424,11 @@
       <c r="N18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K19" s="11" t="s">
@@ -1749,7 +1749,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1764,17 +1764,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1858,7 +1858,7 @@
       <c r="B6" s="2">
         <v>1.19047619047619</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
         <v>45</v>
@@ -1866,7 +1866,7 @@
       <c r="F6">
         <v>1.0416666666666701</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1876,7 +1876,7 @@
         <f>B6*4*D2/(B4*B4)</f>
         <v>1.8890200708382521</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
         <v>9</v>
@@ -1987,7 +1987,7 @@
         <f>B12+B11</f>
         <v>3</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <f>ABS((B13-3)/3)</f>
         <v>0</v>
       </c>
@@ -1999,13 +1999,13 @@
         <f>F12+F11</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <f>ABS((F13-H2)/H2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I14" s="20"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -2109,17 +2109,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -2502,11 +2502,11 @@
       <c r="L20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
